--- a/Secondaries/SecondariesList.xlsx
+++ b/Secondaries/SecondariesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AMCAS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>Med School</t>
   </si>
@@ -232,17 +232,63 @@
   <si>
     <t>https://studentaffairs.swmed.org/mygateway/login.aspx</t>
   </si>
+  <si>
+    <t>Please describe your primary research Interests for the PhD portion of dual degree training including potential Baylor College of Medicine or Rice University faculty with whom you would like to work. (Will not limit final research project or mentor selection)</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Essays</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <r>
+      <t>Please </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>use keywords or phrases, separated by commas,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to identify your research interests more specifically. Do not use tabs or add lines by hitting the enter key. There is a limit of 500 characters</t>
+    </r>
+  </si>
+  <si>
+    <t>Our interview season runs from mid-September through January. Please indicate any significant (three or more weeks) restriction on your availability for interviews during this period. If none, leave blank.</t>
+  </si>
+  <si>
+    <t>Instructions: The HST MD program draws on the combined resources of Harvard and MIT to provide a distinct preclinical education tailored to preparing students for careers as physician-scientists across the full spectrum of disciplines including biological, physical and engineering sciences. HST classes are small, commonly include graduate students and have an emphasis on quantitative and analytic approaches, centered on understanding disease mechanisms and preparing students to solve unmet needs in medicine ranging from novel diagnostics and therapeutics to applications of ‘big data’ and systems engineering as they relate to healthcare. Please focus on how your interests, experiences and aspirations have prepared you for HST (rather than identifying specific HST faculty or research opportunities). Limit your comments to the equivalent of one page of single spaced text with a font size of 10 or 12.</t>
+  </si>
+  <si>
+    <t>4000 (actually one page of single spaced 10 or 12 font…)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,8 +337,64 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF553322"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +413,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -320,15 +438,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -357,15 +529,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,18 +553,95 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,385 +971,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="93" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="5" max="6" width="10.83203125" style="20"/>
+    <col min="7" max="8" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="98" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="98" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="32">
-      <c r="A4" s="22" t="s">
+      <c r="E2" s="23">
+        <v>43040</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="98" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="C3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="32">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="22"/>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="23">
+        <v>42996</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8" ht="16">
+      <c r="A6" s="21"/>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="22"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="1:8" ht="16">
+      <c r="A7" s="21"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="22"/>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="21"/>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" s="8" customFormat="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="99" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="99" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="22"/>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="23">
+        <v>43028</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="21"/>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="240">
-      <c r="A11" s="22"/>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="22"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:8" ht="240">
+      <c r="A12" s="21"/>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="22"/>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="22"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="21"/>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="45">
-      <c r="A13" s="22"/>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="22"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8" ht="45">
+      <c r="A14" s="21"/>
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="8" customFormat="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="32">
-      <c r="A15" s="17" t="s">
+      <c r="E14" s="22"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="32">
+      <c r="A16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="8" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="64">
-      <c r="A17" s="22" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="64">
+      <c r="A18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="22"/>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="23">
+        <v>43054</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="1:8" ht="32">
+      <c r="A19" s="21"/>
+      <c r="C19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="32">
-      <c r="A19" s="22"/>
-      <c r="C19" s="13" t="s">
+      <c r="E19" s="23"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="1:8" ht="32">
+      <c r="A20" s="21"/>
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="64">
-      <c r="A20" s="22"/>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="23"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" ht="64">
+      <c r="A21" s="21"/>
+      <c r="C21" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16">
-      <c r="A21" s="22"/>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="23"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="32">
-      <c r="A22" s="22"/>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="23"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="32">
+      <c r="A23" s="21"/>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="64">
-      <c r="A24" s="22" t="s">
+      <c r="E23" s="23"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="21"/>
+      <c r="C24" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="20">
+        <v>500</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" ht="64">
+      <c r="A26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D26" s="14">
         <v>1800</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="32">
-      <c r="A25" s="22"/>
-      <c r="C25" s="4" t="s">
+      <c r="E26" s="23">
+        <v>43039</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" ht="32">
+      <c r="A27" s="21"/>
+      <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D27" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="48">
-      <c r="A26" s="22"/>
-      <c r="C26" s="4" t="s">
+      <c r="E27" s="22"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" ht="48">
+      <c r="A28" s="21"/>
+      <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D28" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="8" customFormat="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="32">
-      <c r="A28" s="17" t="s">
+      <c r="E28" s="22"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="32">
+      <c r="A30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="8" customFormat="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="32">
-      <c r="A30" s="22" t="s">
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="32">
+      <c r="A32" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D32" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="96">
-      <c r="A31" s="22"/>
-      <c r="C31" s="14" t="s">
+      <c r="E32" s="23">
+        <v>43031</v>
+      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="96">
+      <c r="A33" s="21"/>
+      <c r="C33" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D33" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="32">
-      <c r="A33" s="22" t="s">
+      <c r="E33" s="22"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="48">
+      <c r="A34" s="21"/>
+      <c r="C34" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" ht="160">
+      <c r="A35" s="21"/>
+      <c r="C35" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="32">
+      <c r="A37" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D37" s="14">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32">
-      <c r="A34" s="22"/>
-      <c r="C34" s="4" t="s">
+    <row r="38" spans="1:8" ht="32">
+      <c r="A38" s="51"/>
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D38" s="14">
         <v>1100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32">
-      <c r="A35" s="22"/>
-      <c r="C35" s="4" t="s">
+    <row r="39" spans="1:8" ht="32">
+      <c r="A39" s="51"/>
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D39" s="14">
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="144">
-      <c r="A36" s="22"/>
-      <c r="C36" s="4" t="s">
+    <row r="40" spans="1:8" ht="144">
+      <c r="A40" s="51"/>
+      <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D40" s="14">
         <v>1100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="8" customFormat="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="80">
-      <c r="A38" s="22" t="s">
+    <row r="41" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" ht="80">
+      <c r="A42" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="64">
-      <c r="A39" s="22"/>
-      <c r="C39" s="4" t="s">
+    <row r="43" spans="1:8" ht="64">
+      <c r="A43" s="51"/>
+      <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="48">
-      <c r="A40" s="22"/>
-      <c r="C40" s="4" t="s">
+    <row r="44" spans="1:8" ht="48">
+      <c r="A44" s="51"/>
+      <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D44" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="8" customFormat="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="15"/>
+    <row r="45" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A9:A13"/>
+  <mergeCells count="20">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1122,38 +1558,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="93" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="10.83203125" style="14"/>
     <col min="5" max="5" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="136">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -1161,136 +1597,136 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="48">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="99" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="64">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="48">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="96">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="160">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="48">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20"/>

--- a/Secondaries/SecondariesList.xlsx
+++ b/Secondaries/SecondariesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMCAS" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>ATM HSC</t>
-  </si>
-  <si>
-    <t>Describe briefly any experiences and/or skills that have made you more sensitive or appreciative of other cultures or the human condition. (3500 character maximum).</t>
   </si>
   <si>
     <t>The honor code for the Texas A&amp;M College of Medicine is: “A Texas A&amp;M medical student is a professional who exhibits leadership, honesty, integrity, compassion, respect and self-discipline.” Please briefly discuss what activities or personal attributes demonstrate best that you would be a good custodian of our honor code (3500 character maximum).</t>
@@ -277,18 +274,20 @@
   <si>
     <t>4000 (actually one page of single spaced 10 or 12 font…)</t>
   </si>
+  <si>
+    <t>Describe briefly any experiences and/or skills that have made you more sensitive or appreciative of other cultures or the human condition.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,6 +392,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -400,12 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -429,8 +429,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -490,17 +495,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -518,23 +539,12 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,101 +554,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="6" builtinId="28"/>
@@ -973,567 +990,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="32.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="93" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
-    <col min="5" max="6" width="10.83203125" style="20"/>
-    <col min="7" max="8" width="10.83203125" style="27"/>
+    <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="5" max="6" width="10.83203125" style="13"/>
+    <col min="7" max="8" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="98" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="40">
         <v>43040</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="52"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="98" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="C3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="A3" s="39"/>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="32">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="40">
         <v>42996</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="52"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="16">
-      <c r="A6" s="21"/>
+      <c r="A6" s="39"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="16">
-      <c r="A7" s="21"/>
+      <c r="A7" s="39"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="52"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="21"/>
+      <c r="A8" s="39"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="99" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>2000</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="40">
         <v>43028</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="52"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="21"/>
+      <c r="A11" s="39"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="52"/>
+      <c r="E11" s="41"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="240">
-      <c r="A12" s="21"/>
+      <c r="A12" s="39"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>1000</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="52"/>
+      <c r="E12" s="41"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="21"/>
+      <c r="A13" s="39"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="9">
         <v>1000</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="52"/>
+      <c r="E13" s="41"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="A14" s="21"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="39"/>
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="32">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="64">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="9">
         <v>100</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="40">
         <v>43054</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="52"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="32">
-      <c r="A19" s="21"/>
-      <c r="C19" s="42" t="s">
+      <c r="A19" s="39"/>
+      <c r="C19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="9">
         <v>500</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="52"/>
+      <c r="E19" s="40"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="32">
-      <c r="A20" s="21"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="39"/>
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="9">
         <v>1000</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="52"/>
+      <c r="E20" s="40"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="64">
-      <c r="A21" s="21"/>
-      <c r="C21" s="42" t="s">
+      <c r="A21" s="39"/>
+      <c r="C21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="9">
         <v>1000</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="52"/>
+      <c r="E21" s="40"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="39"/>
+      <c r="C22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="9">
         <v>1000</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="52"/>
+      <c r="E22" s="40"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="32">
-      <c r="A23" s="21"/>
+      <c r="A23" s="39"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="9">
         <v>1000</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="52"/>
+      <c r="E23" s="40"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="21"/>
-      <c r="C24" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="A24" s="39"/>
+      <c r="C24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="13">
         <v>500</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="E24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="64">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="9">
         <v>1800</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="40">
         <v>43039</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="52"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="32">
-      <c r="A27" s="21"/>
+      <c r="A27" s="39"/>
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="9">
         <v>3000</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="52"/>
+      <c r="E27" s="41"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="48">
-      <c r="A28" s="21"/>
+      <c r="A28" s="39"/>
       <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="9">
         <v>3000</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="29" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="E28" s="41"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="32">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="9">
         <v>4000</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="40">
         <v>43031</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="52"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="96">
-      <c r="A33" s="21"/>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="39"/>
+      <c r="C33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="9">
         <v>4000</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
+      <c r="E33" s="41"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="48">
-      <c r="A34" s="21"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="39"/>
+      <c r="C34" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="41"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="160">
+      <c r="A35" s="39"/>
+      <c r="C35" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="1:8" ht="160">
-      <c r="A35" s="21"/>
-      <c r="C35" s="45" t="s">
+      <c r="D35" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="E35" s="41"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="32">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32">
-      <c r="A38" s="51"/>
+      <c r="A38" s="45"/>
       <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="9">
         <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32">
-      <c r="A39" s="51"/>
+      <c r="A39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="144">
-      <c r="A40" s="51"/>
+      <c r="A40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="9">
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+    <row r="41" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="80">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="64">
-      <c r="A43" s="51"/>
+      <c r="A43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48">
-      <c r="A44" s="51"/>
+      <c r="A44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+    <row r="45" spans="1:8" s="24" customFormat="1" ht="15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="E5:E8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="E2:E3"/>
@@ -1543,6 +1549,17 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1558,175 +1575,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="32.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="93" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="9"/>
     <col min="5" max="5" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="136">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" ht="105">
+      <c r="A2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="48">
-      <c r="A3" s="21"/>
-      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="39"/>
+      <c r="C3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13"/>
+    <row r="4" spans="1:5" s="24" customFormat="1" ht="15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="21"/>
+      <c r="A6" s="39"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="21"/>
+      <c r="A7" s="39"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="99" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A8" s="39"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" s="24" customFormat="1" ht="16" thickBot="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="50" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="104" customHeight="1" thickTop="1">
+      <c r="A11" s="39"/>
+      <c r="C11" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="64">
-      <c r="A11" s="21"/>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:5" ht="64">
+      <c r="A12" s="39"/>
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="9">
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64">
-      <c r="A12" s="21"/>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:5" ht="48">
+      <c r="A13" s="39"/>
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="14">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="48">
-      <c r="A13" s="21"/>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:5" s="24" customFormat="1" ht="15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="96">
+      <c r="A15" s="39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="96">
-      <c r="A15" s="21" t="s">
+      <c r="C15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="32">
+      <c r="A16" s="39"/>
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="32">
-      <c r="A16" s="21"/>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="160">
+      <c r="A17" s="39"/>
+      <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="160">
-      <c r="A17" s="21"/>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48">
+      <c r="A18" s="39"/>
+      <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="48">
-      <c r="A18" s="21"/>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="8" customFormat="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="24" customFormat="1" ht="15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20"/>

--- a/Secondaries/SecondariesList.xlsx
+++ b/Secondaries/SecondariesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AMCAS" sheetId="1" r:id="rId1"/>
@@ -617,38 +617,38 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -990,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="98" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1036,24 +1036,24 @@
       <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="47">
         <v>43040</v>
       </c>
       <c r="F2" s="14"/>
-      <c r="G2" s="42"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="98" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="43"/>
       <c r="C3" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="43"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1067,50 +1067,50 @@
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="32">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="47">
         <v>42996</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="16">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="G6" s="44"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="16">
-      <c r="A7" s="39"/>
+      <c r="A7" s="43"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="G7" s="44"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1124,7 +1124,7 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="99" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1133,58 +1133,58 @@
       <c r="D10" s="9">
         <v>2000</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="47">
         <v>43028</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="39"/>
+      <c r="A11" s="43"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="G11" s="44"/>
+      <c r="E11" s="49"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="240">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="9">
         <v>1000</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="49"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="39"/>
+      <c r="A13" s="43"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="9">
         <v>1000</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="49"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="G14" s="43"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1221,7 +1221,7 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="64">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -1230,82 +1230,82 @@
       <c r="D18" s="9">
         <v>100</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="47">
         <v>43054</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="32">
-      <c r="A19" s="39"/>
+      <c r="A19" s="43"/>
       <c r="C19" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="9">
         <v>500</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="G19" s="44"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="32">
-      <c r="A20" s="39"/>
+      <c r="A20" s="43"/>
       <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="9">
         <v>1000</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="64">
-      <c r="A21" s="39"/>
+      <c r="A21" s="43"/>
       <c r="C21" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9">
         <v>1000</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="G21" s="44"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="43"/>
       <c r="C22" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="9">
         <v>1000</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="32">
-      <c r="A23" s="39"/>
+      <c r="A23" s="43"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="9">
         <v>1000</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="39"/>
+      <c r="A24" s="43"/>
       <c r="C24" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="13">
         <v>500</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="G24" s="43"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1319,7 +1319,7 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="64">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -1328,34 +1328,34 @@
       <c r="D26" s="9">
         <v>1800</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="47">
         <v>43039</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="32">
-      <c r="A27" s="39"/>
+      <c r="A27" s="43"/>
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="9">
         <v>3000</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="49"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="48">
-      <c r="A28" s="39"/>
+      <c r="A28" s="43"/>
       <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="9">
         <v>3000</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="G28" s="43"/>
+      <c r="E28" s="49"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1392,7 +1392,7 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="32">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1401,43 +1401,43 @@
       <c r="D32" s="9">
         <v>4000</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="47">
         <v>43031</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="96">
-      <c r="A33" s="39"/>
+      <c r="A33" s="43"/>
       <c r="C33" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="9">
         <v>4000</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="49"/>
       <c r="G33" s="36"/>
       <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="48">
-      <c r="A34" s="39"/>
+      <c r="A34" s="43"/>
       <c r="C34" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="49"/>
       <c r="G34" s="36"/>
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="160">
-      <c r="A35" s="39"/>
+      <c r="A35" s="43"/>
       <c r="C35" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="49"/>
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="32">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="32">
-      <c r="A38" s="45"/>
+      <c r="A38" s="49"/>
       <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="32">
-      <c r="A39" s="45"/>
+      <c r="A39" s="49"/>
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="144">
-      <c r="A40" s="45"/>
+      <c r="A40" s="49"/>
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="80">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="64">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="48">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
@@ -1540,6 +1540,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="E2:E3"/>
@@ -1556,10 +1560,6 @@
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1575,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="39"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="43"/>
+      <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="9">
@@ -1629,27 +1629,27 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="39"/>
+      <c r="A7" s="43"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="39"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="43"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:5" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A9" s="21"/>
@@ -1658,10 +1658,10 @@
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="50" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="9">
@@ -1669,8 +1669,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="104" customHeight="1" thickTop="1">
-      <c r="A11" s="39"/>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="C11" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="9">
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="64">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="48">
-      <c r="A13" s="39"/>
+      <c r="A13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="96">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="32">
-      <c r="A16" s="39"/>
+      <c r="A16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="160">
-      <c r="A17" s="39"/>
+      <c r="A17" s="43"/>
       <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="48">
-      <c r="A18" s="39"/>
+      <c r="A18" s="43"/>
       <c r="C18" s="4" t="s">
         <v>63</v>
       </c>

--- a/Secondaries/SecondariesList.xlsx
+++ b/Secondaries/SecondariesList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMCAS" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,8 +520,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -632,6 +640,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,23 +655,38 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="16">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -990,9 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -1036,11 +1065,11 @@
       <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="44">
         <v>43040</v>
       </c>
       <c r="F2" s="14"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="98" customHeight="1">
@@ -1051,9 +1080,9 @@
       <c r="D3" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="46"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1073,45 +1102,45 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="44">
         <v>42996</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="16">
       <c r="A6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="16">
       <c r="A7" s="43"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="38"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="38"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" s="24" customFormat="1" ht="15">
       <c r="A9" s="21"/>
@@ -1133,10 +1162,10 @@
       <c r="D10" s="9">
         <v>2000</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="44">
         <v>43028</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -1147,8 +1176,8 @@
       <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="G11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="240">
@@ -1159,8 +1188,8 @@
       <c r="D12" s="9">
         <v>1000</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="G12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -1171,8 +1200,8 @@
       <c r="D13" s="9">
         <v>1000</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="G13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="45">
@@ -1183,8 +1212,8 @@
       <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="G14" s="46"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1230,10 +1259,10 @@
       <c r="D18" s="9">
         <v>100</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="44">
         <v>43054</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="32">
@@ -1244,8 +1273,8 @@
       <c r="D19" s="9">
         <v>500</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="G19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="32">
@@ -1256,8 +1285,8 @@
       <c r="D20" s="9">
         <v>1000</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="G20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="64">
@@ -1268,8 +1297,8 @@
       <c r="D21" s="9">
         <v>1000</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="G21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1">
@@ -1280,8 +1309,8 @@
       <c r="D22" s="9">
         <v>1000</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="G22" s="45"/>
+      <c r="E22" s="44"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="32">
@@ -1292,8 +1321,8 @@
       <c r="D23" s="9">
         <v>1000</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="G23" s="45"/>
+      <c r="E23" s="44"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="30">
@@ -1304,8 +1333,8 @@
       <c r="D24" s="13">
         <v>500</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="G24" s="46"/>
+      <c r="E24" s="44"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1328,10 +1357,10 @@
       <c r="D26" s="9">
         <v>1800</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="44">
         <v>43039</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="32">
@@ -1342,8 +1371,8 @@
       <c r="D27" s="9">
         <v>3000</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="G27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="48">
@@ -1354,8 +1383,8 @@
       <c r="D28" s="9">
         <v>3000</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="45"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" s="24" customFormat="1" ht="15">
@@ -1401,7 +1430,7 @@
       <c r="D32" s="9">
         <v>4000</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="44">
         <v>43031</v>
       </c>
       <c r="G32" s="35"/>
@@ -1415,7 +1444,7 @@
       <c r="D33" s="9">
         <v>4000</v>
       </c>
-      <c r="E33" s="49"/>
+      <c r="E33" s="45"/>
       <c r="G33" s="36"/>
       <c r="H33" s="38"/>
     </row>
@@ -1425,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="45"/>
       <c r="G34" s="36"/>
       <c r="H34" s="38"/>
     </row>
@@ -1437,7 +1466,7 @@
       <c r="D35" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="45"/>
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
     </row>
@@ -1452,7 +1481,7 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="32">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1463,7 +1492,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="32">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1472,7 +1501,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="32">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1510,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="144">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1500,7 +1529,7 @@
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="80">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1511,7 +1540,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="64">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1520,7 +1549,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="48">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
@@ -1540,11 +1569,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A42:A44"/>
@@ -1560,6 +1584,11 @@
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1575,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -1600,7 +1629,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -1614,7 +1643,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
@@ -1635,21 +1664,21 @@
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="43"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="49"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="43"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="49"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="43"/>
-      <c r="D8" s="49"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:5" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A9" s="21"/>
